--- a/backend/students_data.xlsx
+++ b/backend/students_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\school\FYP\Timetable\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F9CB95-77F5-4EA0-9F99-6E155F109E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B477BA-C78A-4D62-8152-CCE283B55430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31D69A0E-E3D7-499F-8C4E-3A74DD777948}"/>
   </bookViews>
@@ -54,48 +54,6 @@
     <t>examiner</t>
   </si>
   <si>
-    <t>Andrew2002</t>
-  </si>
-  <si>
-    <t>Darren</t>
-  </si>
-  <si>
-    <t>Dennis</t>
-  </si>
-  <si>
-    <t>Evelyn2003</t>
-  </si>
-  <si>
-    <t>Hangjun2003</t>
-  </si>
-  <si>
-    <t>Jackie</t>
-  </si>
-  <si>
-    <t>Jawjing2004</t>
-  </si>
-  <si>
-    <t>Jiaqi2003</t>
-  </si>
-  <si>
-    <t>Khairu</t>
-  </si>
-  <si>
-    <t>Kimyu2003</t>
-  </si>
-  <si>
-    <t>Leonard2004</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Simon2002</t>
-  </si>
-  <si>
-    <t>WuiLee</t>
-  </si>
-  <si>
     <t>lecturer1</t>
   </si>
   <si>
@@ -292,6 +250,48 @@
   </si>
   <si>
     <t>co_supervisor_username</t>
+  </si>
+  <si>
+    <t>andrew</t>
+  </si>
+  <si>
+    <t>darren</t>
+  </si>
+  <si>
+    <t>evelyn</t>
+  </si>
+  <si>
+    <t>hangjun</t>
+  </si>
+  <si>
+    <t>jawjing</t>
+  </si>
+  <si>
+    <t>jiaqi</t>
+  </si>
+  <si>
+    <t>kimyu</t>
+  </si>
+  <si>
+    <t>leonard</t>
+  </si>
+  <si>
+    <t>simon</t>
+  </si>
+  <si>
+    <t>dennis</t>
+  </si>
+  <si>
+    <t>michael</t>
+  </si>
+  <si>
+    <t>khairu</t>
+  </si>
+  <si>
+    <t>wuilee</t>
+  </si>
+  <si>
+    <t>jackie</t>
   </si>
 </sst>
 </file>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F52FD2-F487-419F-B7B3-10CB6CC70643}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -699,10 +699,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -710,508 +710,508 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/backend/students_data.xlsx
+++ b/backend/students_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\school\FYP\Timetable\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B477BA-C78A-4D62-8152-CCE283B55430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5B5DF1-3D6D-473B-932B-9652A76D7D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31D69A0E-E3D7-499F-8C4E-3A74DD777948}"/>
   </bookViews>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F52FD2-F487-419F-B7B3-10CB6CC70643}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/backend/students_data.xlsx
+++ b/backend/students_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\school\FYP\Timetable\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5B5DF1-3D6D-473B-932B-9652A76D7D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5108CB1B-AA17-49A5-ABEF-72A831304F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31D69A0E-E3D7-499F-8C4E-3A74DD777948}"/>
   </bookViews>
@@ -144,12 +144,6 @@
     <t>BID student 4</t>
   </si>
   <si>
-    <t>student</t>
-  </si>
-  <si>
-    <t>lecturer</t>
-  </si>
-  <si>
     <t>BID</t>
   </si>
   <si>
@@ -292,6 +286,12 @@
   </si>
   <si>
     <t>jackie</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Lecturer</t>
   </si>
 </sst>
 </file>
@@ -654,7 +654,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -699,10 +699,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -710,86 +710,86 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>11</v>
@@ -800,54 +800,54 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>11</v>
@@ -858,112 +858,112 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>12</v>
@@ -980,19 +980,19 @@
         <v>35</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>9</v>
@@ -1009,19 +1009,19 @@
         <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>10</v>
@@ -1038,19 +1038,19 @@
         <v>37</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>9</v>
@@ -1067,19 +1067,19 @@
         <v>38</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>9</v>
@@ -1090,72 +1090,72 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1166,10 +1166,10 @@
         <v>31</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>32</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1194,10 +1194,10 @@
         <v>33</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1208,10 +1208,10 @@
         <v>34</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/backend/students_data.xlsx
+++ b/backend/students_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\school\FYP\Timetable\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5108CB1B-AA17-49A5-ABEF-72A831304F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3AF34A-AEDB-4955-B553-89D85EF127A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31D69A0E-E3D7-499F-8C4E-3A74DD777948}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>title</t>
   </si>
   <si>
-    <t>examiner</t>
-  </si>
-  <si>
     <t>lecturer1</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>Lecturer</t>
+  </si>
+  <si>
+    <t>examiner_usernames</t>
   </si>
 </sst>
 </file>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F52FD2-F487-419F-B7B3-10CB6CC70643}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -699,519 +699,519 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="H13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/backend/students_data.xlsx
+++ b/backend/students_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\school\FYP\Timetable\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3AF34A-AEDB-4955-B553-89D85EF127A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB8A069-C12F-4D1F-95C8-73EF929CECBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31D69A0E-E3D7-499F-8C4E-3A74DD777948}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>fyp_stage</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>lecturer1</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>examiner_usernames</t>
+  </si>
+  <si>
+    <t>project_title</t>
   </si>
 </sst>
 </file>
@@ -654,7 +654,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -696,522 +696,522 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="H13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
